--- a/Data/Motif stuff/MotifMirsALL.xlsx
+++ b/Data/Motif stuff/MotifMirsALL.xlsx
@@ -665,13 +665,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,176 +694,206 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3615</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0.26012299999999999</v>
+        <v>0.51094300000000004</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>-0.1004</v>
+        <v>0.74530300000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.69428999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0.86647799999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.62734100000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
+      <c r="A7" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0.96121800000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>61</v>
+      <c r="A8" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.96686000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>61</v>
+      <c r="A9" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0.50996300000000006</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
+      <c r="A10" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>-0.56681999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
+      <c r="A11" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0.821322</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
+      <c r="A12" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0.44367200000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
+      <c r="A13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,195 +903,189 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>429</v>
+      <c r="C14" t="s">
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.96121800000000002</v>
+        <v>-0.1004</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>0.96686000000000005</v>
+        <v>0.41476600000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0.50996300000000006</v>
+        <v>0.96686000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>-0.56681999999999999</v>
+        <v>0.50996300000000006</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>0.821322</v>
+        <v>0.52535600000000005</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>0.44367200000000001</v>
+        <v>0.530053</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0.29899999999999999</v>
+        <v>0.62734100000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>-0.1004</v>
+        <v>0.74530300000000005</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
+      <c r="A22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>-0.34739999999999999</v>
+        <v>0.69428999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>-2.7969999999999998E-2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
-      </c>
-      <c r="E24">
-        <v>-3.7749999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
@@ -1068,13 +1093,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -1082,13 +1107,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27">
-        <v>484</v>
+      <c r="C27" t="s">
+        <v>81</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
@@ -1101,8 +1126,8 @@
       <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
-        <v>69</v>
+      <c r="C28">
+        <v>484</v>
       </c>
       <c r="D28" t="s">
         <v>49</v>
@@ -1116,10 +1141,10 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1155,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -1144,7 +1169,7 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
@@ -1158,27 +1183,27 @@
         <v>49</v>
       </c>
       <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
       <c r="D33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1186,13 +1211,13 @@
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1200,13 +1225,13 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1214,13 +1239,13 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1228,30 +1253,27 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>3615</v>
-      </c>
       <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>0.51094300000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1265,7 +1287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1279,504 +1301,483 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>0.74530300000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>0.69428999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>0.86647799999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>0.62734100000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.26012299999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>-0.1004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>-0.34739999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>-2.7969999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>-3.7749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45">
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62">
         <v>0.41476600000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>-0.34976000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0.38711200000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>-3.7749999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>-0.34739999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0.26012299999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>-0.28775000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>0.821322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>9.7480999999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55">
-        <v>0.41476600000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>0.96686000000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>0.50996300000000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58">
-        <v>0.52535600000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <v>0.530053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <v>0.62734100000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61">
-        <v>0.74530300000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62">
-        <v>0.69428999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
+      </c>
+      <c r="E63">
+        <v>-0.34976000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.38711200000000001</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
       </c>
+      <c r="E65">
+        <v>-3.7749999999999999E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>56</v>
+      <c r="A66" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
       </c>
+      <c r="E66">
+        <v>-0.34739999999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>56</v>
+      <c r="A67" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
       </c>
+      <c r="E67">
+        <v>0.26012299999999999</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>56</v>
+      <c r="A68" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
       </c>
+      <c r="E68">
+        <v>-0.28775000000000001</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>56</v>
+      <c r="A69" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0.821322</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>56</v>
+      <c r="A70" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
       </c>
+      <c r="E70">
+        <v>0.29899999999999999</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>56</v>
+      <c r="A71" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>9.7480999999999998E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,7 +2177,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E117">
-    <sortCondition ref="A2:A117"/>
+    <sortCondition ref="B2:B117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
